--- a/ExcelExamples/EquityValuation.xlsx
+++ b/ExcelExamples/EquityValuation.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Call" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -37,15 +37,6 @@
     <t>correlations</t>
   </si>
   <si>
-    <t>ZAR:ALSI</t>
-  </si>
-  <si>
-    <t>ZAR:AAA</t>
-  </si>
-  <si>
-    <t>ZAR:BBB</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -83,6 +74,15 @@
   </si>
   <si>
     <t>QSA.FormulaBlackScholes</t>
+  </si>
+  <si>
+    <t>ZAR.ALSI</t>
+  </si>
+  <si>
+    <t>ZAR.AAA</t>
+  </si>
+  <si>
+    <t>ZAR.BBB</t>
   </si>
 </sst>
 </file>
@@ -500,18 +500,18 @@
   <dimension ref="B2:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -519,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -534,13 +534,13 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>M9</f>
-        <v>ZARDiscount.09:46:06-11</v>
+        <v>ZARDiscount.19:50:47-12</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>200</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>50</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -642,18 +642,18 @@
       </c>
       <c r="M9" s="5" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(N3,M6:M7,N6:N7,N4)</f>
-        <v>ZARDiscount.09:46:06-11</v>
+        <v>ZARDiscount.19:50:47-12</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
         <f>_xll.QSA.CreateEquityModel(C3,C4,B7:B9,C7:C9,D7:D9,E7:E9,G7:I9)</f>
-        <v>equitySimulator01.09:46:06-12</v>
+        <v>equitySimulator01.19:50:47-13</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -661,21 +661,21 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>B7</f>
-        <v>ZAR:ALSI</v>
+        <v>ZAR.ALSI</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
         <f>EDATE(M6,12)</f>
@@ -684,7 +684,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <f>C7*1.05</f>
@@ -694,12 +694,12 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="str">
         <f>_xll.QSA.CreateEquityCall(C15,C16,C17,C18)</f>
-        <v>alsiCall1Y.09:46:06-10</v>
+        <v>alsiCall1Y.19:50:47-11</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>100000</v>
@@ -722,19 +722,19 @@
     <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="str">
         <f>_xll.QSA.Value(C24,B20,M6,B11,C25)</f>
-        <v>alsiCall1YValue.09:46:06-13</v>
+        <v>alsiCall1YValue.19:50:48-14</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
-        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
-        <v>16.311834324357566</v>
+        <f>_xll.QSA.GetResults(B27,"value")</f>
+        <v>16.334141991633611</v>
       </c>
       <c r="F28" s="8">
-        <f ca="1">_xll.QSA.FormulaBlackScholes(C18,M6,C17,C7,D7,N6,E7)</f>
+        <f>_xll.QSA.FormulaBlackScholes(C18,M6,C17,C7,D7,N6,E7)</f>
         <v>16.232208920259719</v>
       </c>
     </row>

--- a/ExcelExamples/EquityValuation.xlsx
+++ b/ExcelExamples/EquityValuation.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="Call" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -500,21 +500,17 @@
   <dimension ref="B2:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -528,13 +524,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>M9</f>
-        <v>ZARDiscount.19:50:47-12</v>
+        <v>ZARDiscount.20:12:25-96</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
@@ -543,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -566,7 +562,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -595,7 +591,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -618,7 +614,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -642,13 +638,13 @@
       </c>
       <c r="M9" s="5" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(N3,M6:M7,N6:N7,N4)</f>
-        <v>ZARDiscount.19:50:47-12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.20:12:25-96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
-        <f>_xll.QSA.CreateEquityModel(C3,C4,B7:B9,C7:C9,D7:D9,E7:E9,G7:I9)</f>
-        <v>equitySimulator01.19:50:47-13</v>
+        <f ca="1">_xll.QSA.CreateEquityModel(C3,C4,B7:B9,C7:C9,D7:D9,E7:E9,G7:I9)</f>
+        <v>ERROR: shares must have a string value corresponding to a name of type Share.</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
@@ -656,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -664,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -673,7 +669,7 @@
         <v>ZAR.ALSI</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -682,7 +678,7 @@
         <v>43008</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -691,10 +687,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="str">
         <f>_xll.QSA.CreateEquityCall(C15,C16,C17,C18)</f>
-        <v>alsiCall1Y.19:50:47-11</v>
+        <v>ERROR: share must have a string value corresponding to a name of type Share.</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.35">
@@ -702,7 +698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -711,7 +707,7 @@
         <v>alsiCall1YValue</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
@@ -721,17 +717,17 @@
     </row>
     <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="str">
-        <f>_xll.QSA.Value(C24,B20,M6,B11,C25)</f>
-        <v>alsiCall1YValue.19:50:48-14</v>
+        <f ca="1">_xll.QSA.Value(C24,B20,M6,B11,C25)</f>
+        <v>ERROR: products: No converter for type: Product and no object named ERROR: share must have a string value corresponding to a name of type Share. on the map.</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
-        <f>_xll.QSA.GetResults(B27,"value")</f>
-        <v>16.334141991633611</v>
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="str">
+        <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
+        <v>ERROR: resultStore: No converter for type: ResultStore and no object named ERROR: products: No converter for type: Product and no object named ERROR: share must have a string value corresponding to a name of type Share. on the map. on the map.</v>
       </c>
       <c r="F28" s="8">
         <f>_xll.QSA.FormulaBlackScholes(C18,M6,C17,C7,D7,N6,E7)</f>

--- a/ExcelExamples/EquityValuation.xlsx
+++ b/ExcelExamples/EquityValuation.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\QuantSA\ExcelExamples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF730B-D58C-462D-96F8-D6836A8F6A4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Call" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -74,21 +88,12 @@
   </si>
   <si>
     <t>QSA.FormulaBlackScholes</t>
-  </si>
-  <si>
-    <t>ZAR.ALSI</t>
-  </si>
-  <si>
-    <t>ZAR.AAA</t>
-  </si>
-  <si>
-    <t>ZAR.BBB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +202,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -205,6 +210,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -253,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,9 +294,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +346,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,21 +538,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,13 +566,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>M9</f>
-        <v>ZARDiscount.20:12:25-96</v>
+        <f ca="1">M9</f>
+        <v>ZARDiscount.13:19:59-1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>7</v>
@@ -539,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -562,9 +604,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>20</v>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="str">
+        <f ca="1">_xll.QSA.CreateShare("ALSI","ZAR")</f>
+        <v>SHARE:ZAR:ALSI</v>
       </c>
       <c r="C7" s="2">
         <v>200</v>
@@ -591,9 +634,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>21</v>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="str">
+        <f ca="1">_xll.QSA.CreateShare("AAA","ZAR")</f>
+        <v>SHARE:ZAR:AAA</v>
       </c>
       <c r="C8" s="2">
         <v>50</v>
@@ -614,9 +658,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>22</v>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="str">
+        <f ca="1">_xll.QSA.CreateShare("BBB","ZAR")</f>
+        <v>SHARE:ZAR:BBB</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -637,14 +682,14 @@
         <v>1</v>
       </c>
       <c r="M9" s="5" t="str">
-        <f>_xll.QSA.CreateDatesAndRatesCurve(N3,M6:M7,N6:N7,N4)</f>
-        <v>ZARDiscount.20:12:25-96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+        <f ca="1">_xll.QSA.CreateDatesAndRatesCurve(N3,M6:M7,N6:N7,N4)</f>
+        <v>ZARDiscount.13:19:59-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
         <f ca="1">_xll.QSA.CreateEquityModel(C3,C4,B7:B9,C7:C9,D7:D9,E7:E9,G7:I9)</f>
-        <v>ERROR: shares must have a string value corresponding to a name of type Share.</v>
+        <v>equitySimulator01.13:19:59-3</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
@@ -652,7 +697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -660,37 +705,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>B7</f>
-        <v>ZAR.ALSI</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+        <f ca="1">B7</f>
+        <v>SHARE:ZAR:ALSI</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="6">
-        <f>EDATE(M6,12)</f>
+        <f ca="1">EDATE(M6,12)</f>
         <v>43008</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <f>C7*1.05</f>
+        <f ca="1">C7*1.05</f>
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="str">
-        <f>_xll.QSA.CreateEquityCall(C15,C16,C17,C18)</f>
-        <v>ERROR: share must have a string value corresponding to a name of type Share.</v>
+        <f ca="1">_xll.QSA.CreateEquityCall(C15,C16,C17,C18)</f>
+        <v>alsiCall1Y.13:19:59-2</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.35">
@@ -698,16 +743,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>C15&amp;"Value"</f>
+        <f ca="1">C15&amp;"Value"</f>
         <v>alsiCall1YValue</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
@@ -718,19 +763,19 @@
     <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="str">
         <f ca="1">_xll.QSA.Value(C24,B20,M6,B11,C25)</f>
-        <v>ERROR: products: No converter for type: Product and no object named ERROR: share must have a string value corresponding to a name of type Share. on the map.</v>
+        <v>alsiCall1YValue.13:20:00-4</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="str">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
         <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
-        <v>ERROR: resultStore: No converter for type: ResultStore and no object named ERROR: products: No converter for type: Product and no object named ERROR: share must have a string value corresponding to a name of type Share. on the map. on the map.</v>
+        <v>16.288538986560159</v>
       </c>
       <c r="F28" s="8">
-        <f>_xll.QSA.FormulaBlackScholes(C18,M6,C17,C7,D7,N6,E7)</f>
+        <f ca="1">_xll.QSA.FormulaBlackScholes(C18,M6,C17,C7,D7,N6,E7)</f>
         <v>16.232208920259719</v>
       </c>
     </row>

--- a/ExcelExamples/EquityValuation.xlsx
+++ b/ExcelExamples/EquityValuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\QuantSA\ExcelExamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a2c6574b59b6aaf/Documents/GitHub/Riskworx/QuantSA/ExcelExamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF730B-D58C-462D-96F8-D6836A8F6A4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{A8DF730B-D58C-462D-96F8-D6836A8F6A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A9B8AA-D729-4A78-AB4E-2633E50509A5}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="610" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Call" sheetId="1" r:id="rId1"/>
@@ -541,18 +541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -604,7 +604,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="str">
         <f ca="1">_xll.QSA.CreateShare("ALSI","ZAR")</f>
         <v>SHARE:ZAR:ALSI</v>
@@ -634,7 +634,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="str">
         <f ca="1">_xll.QSA.CreateShare("AAA","ZAR")</f>
         <v>SHARE:ZAR:AAA</v>
@@ -658,7 +658,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="str">
         <f ca="1">_xll.QSA.CreateShare("BBB","ZAR")</f>
         <v>SHARE:ZAR:BBB</v>
@@ -683,21 +683,21 @@
       </c>
       <c r="M9" s="5" t="str">
         <f ca="1">_xll.QSA.CreateDatesAndRatesCurve(N3,M6:M7,N6:N7,N4)</f>
-        <v>ZARDiscount.13:19:59-1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.10:43:18-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="str">
         <f ca="1">_xll.QSA.CreateEquityModel(C3,C4,B7:B9,C7:C9,D7:D9,E7:E9,G7:I9)</f>
-        <v>equitySimulator01.13:19:59-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+        <v>equitySimulator01.10:43:33-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -714,7 +714,7 @@
         <v>SHARE:ZAR:ALSI</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -723,7 +723,7 @@
         <v>43008</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -732,18 +732,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="str">
-        <f ca="1">_xll.QSA.CreateEquityCall(C15,C16,C17,C18)</f>
-        <v>alsiCall1Y.13:19:59-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+        <f ca="1">_xll.QSA.CreateEquityCall(C15,C16,C17,C18,"Put")</f>
+        <v>alsiCall1Y.10:43:41-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.5">
       <c r="B23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>alsiCall1YValue</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
@@ -760,23 +760,23 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.5">
       <c r="B27" s="5" t="str">
         <f ca="1">_xll.QSA.Value(C24,B20,M6,B11,C25)</f>
-        <v>alsiCall1YValue.13:20:00-4</v>
+        <v>alsiCall1YValue.10:43:49-4</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="8">
         <f ca="1">_xll.QSA.GetResults(B27,"value")</f>
-        <v>16.288538986560159</v>
+        <v>18.126258019563217</v>
       </c>
       <c r="F28" s="8">
-        <f ca="1">_xll.QSA.FormulaBlackScholes(C18,M6,C17,C7,D7,N6,E7)</f>
-        <v>16.232208920259719</v>
+        <f ca="1">_xll.QSA.FormulaBlackScholes("Put", C18,M6,C17,C7,D7,N6,E7)</f>
+        <v>17.945804390807183</v>
       </c>
     </row>
   </sheetData>
